--- a/exc1.xlsx
+++ b/exc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay Dobrev\Desktop\DTU\02285_ArtificialIntelligenceAndMultiAgentSystems\Exercise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB4EC3-E9BF-42A9-8A27-AB1A003433FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96465304-EB9C-4F08-94CE-7317B2D6580F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7" windowWidth="2033" windowHeight="9825" xr2:uid="{4D1C1A1F-C74B-48DE-A368-8E00ACE28CD6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Level</t>
   </si>
@@ -72,9 +72,6 @@
     <t>DFS</t>
   </si>
   <si>
-    <t>with -g 50</t>
-  </si>
-  <si>
     <t>0,23</t>
   </si>
   <si>
@@ -163,6 +160,72 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>88,07</t>
+  </si>
+  <si>
+    <t>1212,11 MB</t>
+  </si>
+  <si>
+    <t>14,83 MB</t>
+  </si>
+  <si>
+    <t>15,31 MB</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>14,93 MB</t>
+  </si>
+  <si>
+    <t>4,46</t>
+  </si>
+  <si>
+    <t>109,93 MB</t>
+  </si>
+  <si>
+    <t>15,00 MB</t>
+  </si>
+  <si>
+    <t>0,02</t>
+  </si>
+  <si>
+    <t>16,16 MB</t>
+  </si>
+  <si>
+    <t>257,91</t>
+  </si>
+  <si>
+    <t>5037,93 MB</t>
+  </si>
+  <si>
+    <t>274,06</t>
+  </si>
+  <si>
+    <t>5750,13 MB</t>
+  </si>
+  <si>
+    <t>176,88</t>
+  </si>
+  <si>
+    <t>4028,21 MB</t>
+  </si>
+  <si>
+    <t>1244,86</t>
+  </si>
+  <si>
+    <t>12288,01 MB</t>
+  </si>
+  <si>
+    <t>93,92</t>
+  </si>
+  <si>
+    <t>1525,36 MB</t>
   </si>
 </sst>
 </file>
@@ -514,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF94615-9937-420E-BB53-08EF9EB88991}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -528,14 +591,9 @@
     <col min="6" max="6" width="15.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
@@ -546,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -566,10 +624,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -586,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>31</v>
@@ -606,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>90203</v>
@@ -626,10 +684,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>29</v>
@@ -646,10 +704,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -666,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -686,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -706,13 +764,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
       <c r="F11">
         <v>90370</v>
@@ -726,13 +784,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>89284</v>
@@ -746,13 +804,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>87763</v>
@@ -766,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>88498</v>
@@ -786,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>88999</v>
@@ -800,22 +858,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -826,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -846,10 +904,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>19</v>
@@ -866,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>31</v>
@@ -886,16 +944,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
       <c r="F25">
-        <v>90203</v>
+        <v>635190</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
@@ -906,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>29</v>
@@ -926,10 +984,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -946,10 +1004,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -966,10 +1024,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -986,16 +1044,16 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>1025574</v>
       </c>
       <c r="F30">
-        <v>90370</v>
+        <v>3086645</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
@@ -1006,16 +1064,16 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
       </c>
       <c r="F31">
-        <v>89284</v>
+        <v>1897118</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
@@ -1026,16 +1084,16 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>838896</v>
       </c>
       <c r="F32">
-        <v>87763</v>
+        <v>1313985</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
@@ -1046,16 +1104,16 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33">
-        <v>88498</v>
+        <v>8861122</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
@@ -1066,16 +1124,16 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>390396</v>
       </c>
       <c r="F34">
-        <v>88999</v>
+        <v>1060702</v>
       </c>
     </row>
   </sheetData>

--- a/exc1.xlsx
+++ b/exc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay Dobrev\Desktop\DTU\02285_ArtificialIntelligenceAndMultiAgentSystems\Exercise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96465304-EB9C-4F08-94CE-7317B2D6580F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B200C5-2F27-4C5A-9641-6729251CB2D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7" windowWidth="2033" windowHeight="9825" xr2:uid="{4D1C1A1F-C74B-48DE-A368-8E00ACE28CD6}"/>
+    <workbookView xWindow="-91" yWindow="-91" windowWidth="25203" windowHeight="13657" xr2:uid="{4D1C1A1F-C74B-48DE-A368-8E00ACE28CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF94615-9937-420E-BB53-08EF9EB88991}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
